--- a/biology/Botanique/Hymenostegia/Hymenostegia.xlsx
+++ b/biology/Botanique/Hymenostegia/Hymenostegia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hymenostegia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Afrique équatoriale, qui comprend une quinzaine d'espèces acceptées.
-Ce sont des arbustes ou des arbres pouvant atteindre 30 mètres de haut, aux feuilles composées paripennées. Les arbres produisent un bois durable, au grain fin, susceptible de prendre un beau poli, mais la quantité produite est très limitée. Certaines espèces sont utilisées comme arbres d'ornement dans les parcs et jardins ou dans les rues[2]. 
+Ce sont des arbustes ou des arbres pouvant atteindre 30 mètres de haut, aux feuilles composées paripennées. Les arbres produisent un bois durable, au grain fin, susceptible de prendre un beau poli, mais la quantité produite est très limitée. Certaines espèces sont utilisées comme arbres d'ornement dans les parcs et jardins ou dans les rues. 
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (14 décembre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (14 décembre 2018) :
 Hymenostegia afzelii (Oliv.) Harms
 Hymenostegia aubrevillei Pellegr.
 Hymenostegia bakeriana Hutch. &amp; Dalziel
@@ -532,7 +546,7 @@
 Hymenostegia normandii Pellegr.
 Hymenostegia pellegrinii (A.Chev.) J.Leonard
 Hymenostegia talbotii Baker f.
-Hymenostegia viridiflora Mackinder &amp; Wieringa (espèce nouvellement décrite, 2013[4].)
+Hymenostegia viridiflora Mackinder &amp; Wieringa (espèce nouvellement décrite, 2013.)
 </t>
         </is>
       </c>
